--- a/Pokemon_Server/data/pkm_pokedexes.xlsx
+++ b/Pokemon_Server/data/pkm_pokedexes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>pokedex_id</t>
   </si>
@@ -85,18 +85,12 @@
     <t>extended-sinnoh</t>
   </si>
   <si>
-    <t>Platinum Sinnoh dex—an extended version of Diamond and Pearl's</t>
-  </si>
-  <si>
     <t>Updated Johto</t>
   </si>
   <si>
     <t>updated-johto</t>
   </si>
   <si>
-    <t>HeartGold/SoulSilver Johto dex—Gold/Silver/Crystal's, extended to add move-based Generation IV evolutions</t>
-  </si>
-  <si>
     <t>Original Unova</t>
   </si>
   <si>
@@ -148,7 +142,19 @@
     <t>updated-hoenn</t>
   </si>
   <si>
-    <t>Omega Ruby/Alpha Sapphire Hoenn Dex—Ruby/Sapphire/Emerald's, updated to add new evolutions</t>
+    <t>Platinum Sinnoh dex—an extended version of Diamond and Pearl''s</t>
+  </si>
+  <si>
+    <t>HeartGold/SoulSilver Johto dex—Gold/Silver/Crystal''s, extended to add move-based Generation IV evolutions</t>
+  </si>
+  <si>
+    <t>Omega Ruby/Alpha Sapphire Hoenn Dex—Ruby/Sapphire/Emerald''s, updated to add new evolutions</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -543,8 +549,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,8 +569,8 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,8 +589,8 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,8 +609,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,8 +629,8 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,16 +661,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,16 +718,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,13 +738,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,13 +755,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,16 +789,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
